--- a/db/AiCity-71-芬享美味餐廳.xlsx
+++ b/db/AiCity-71-芬享美味餐廳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B68CDB-57EE-904C-9371-10454AA1DD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B842E1-E4F4-CB4E-86A9-37FDC138F4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20440" yWindow="4000" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,45 @@
   <si>
     <t>80</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>新鮮鱸魚湯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒羊肉麵，飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒牛肉麵， 飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新鮮鱸魚粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鮮麵，粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014</t>
   </si>
 </sst>
 </file>
@@ -508,13 +547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618237F-7E0C-354D-96CA-9ABDB6B60914}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -625,6 +664,9 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
@@ -639,6 +681,9 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
@@ -653,6 +698,9 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
@@ -667,6 +715,9 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
@@ -680,6 +731,94 @@
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-71-芬享美味餐廳.xlsx
+++ b/db/AiCity-71-芬享美味餐廳.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B842E1-E4F4-CB4E-86A9-37FDC138F4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BE56DF-2C77-9343-B68C-B770D4C8C608}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20440" yWindow="4000" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
+    <workbookView xWindow="20340" yWindow="4340" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海鮮什錦炒麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蝦仁肉絲蛋炒飯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,18 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010</t>
   </si>
   <si>
@@ -153,27 +137,66 @@
     <t>013</t>
   </si>
   <si>
-    <t>新鮮鱸魚湯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒羊肉麵，飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒牛肉麵， 飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新鮮鱸魚粥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海鮮麵，粥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>014</t>
+  </si>
+  <si>
+    <t>鹹水鴨肉飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鴨肉冬粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鮮麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鮮粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉炒麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉炒飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉炒麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉炒飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鮮炒麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦仁炒飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
   </si>
 </sst>
 </file>
@@ -225,12 +248,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618237F-7E0C-354D-96CA-9ABDB6B60914}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -594,10 +620,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -611,10 +637,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -628,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -647,8 +673,8 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
+      <c r="E5" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -662,10 +688,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -679,10 +705,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -696,10 +722,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -713,10 +739,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="E9" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -730,15 +756,15 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -747,15 +773,15 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
@@ -764,15 +790,15 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -781,15 +807,15 @@
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -798,27 +824,112 @@
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="E14" s="3">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>25</v>
+      <c r="E18" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
